--- a/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R11 吹膜工序清场记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R11 吹膜工序清场记录.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QMS File-20151124\SOP-MFG-3 生产岗位\301. 吹膜岗位记录表20150701\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyang/Documents/workspace/mitcpro/mySystem/mySystem/xls/Extrusion/A/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{09A3C57F-F65A-2447-B2FD-47073D70830A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="285" windowWidth="15480" windowHeight="8130" activeTab="1"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -200,12 +201,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -280,7 +281,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -300,10 +301,16 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -601,35 +608,56 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -640,36 +668,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -685,7 +692,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -760,6 +767,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -795,6 +819,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -970,24 +1011,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="58.125" style="3" customWidth="1"/>
-    <col min="4" max="5" width="9.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="31.75" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="58.1640625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="9.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="19.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -999,43 +1040,43 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:6" ht="39" customHeight="1">
+      <c r="A2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-    </row>
-    <row r="3" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="26" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+    </row>
+    <row r="3" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="26"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1043,7 +1084,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="22" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -1053,16 +1094,16 @@
       <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:6" ht="21" customHeight="1">
+      <c r="A7" s="24" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="9">
@@ -1071,84 +1112,84 @@
       <c r="C7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="26"/>
+    <row r="8" spans="1:6" ht="21" customHeight="1">
+      <c r="A8" s="24"/>
       <c r="B8" s="9">
         <v>2</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="22"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="26"/>
+    <row r="9" spans="1:6" ht="21" customHeight="1">
+      <c r="A9" s="24"/>
       <c r="B9" s="9">
         <v>3</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="22"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="26"/>
+    <row r="10" spans="1:6" ht="21" customHeight="1">
+      <c r="A10" s="24"/>
       <c r="B10" s="9">
         <v>4</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="26"/>
+    <row r="11" spans="1:6" ht="21" customHeight="1">
+      <c r="A11" s="24"/>
       <c r="B11" s="9">
         <v>5</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="26"/>
+    <row r="12" spans="1:6" ht="21" customHeight="1">
+      <c r="A12" s="24"/>
       <c r="B12" s="9">
         <v>6</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="22"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="26" t="s">
+    <row r="13" spans="1:6" ht="21" customHeight="1">
+      <c r="A13" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="9">
@@ -1157,143 +1198,151 @@
       <c r="C13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="22"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="14"/>
     </row>
-    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="26"/>
+    <row r="14" spans="1:6" ht="21" customHeight="1">
+      <c r="A14" s="24"/>
       <c r="B14" s="9">
         <v>2</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="22"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="14"/>
     </row>
-    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="26"/>
+    <row r="15" spans="1:6" ht="21" customHeight="1">
+      <c r="A15" s="24"/>
       <c r="B15" s="9">
         <v>3</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="22"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="14"/>
     </row>
-    <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="26"/>
+    <row r="16" spans="1:6" ht="21" customHeight="1">
+      <c r="A16" s="24"/>
       <c r="B16" s="9">
         <v>4</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="22"/>
+      <c r="E16" s="28"/>
       <c r="F16" s="14"/>
     </row>
-    <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="26"/>
+    <row r="17" spans="1:6" ht="21" customHeight="1">
+      <c r="A17" s="24"/>
       <c r="B17" s="9">
         <v>5</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="22"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="14"/>
     </row>
-    <row r="18" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="26"/>
+    <row r="18" spans="1:6" ht="21" customHeight="1">
+      <c r="A18" s="24"/>
       <c r="B18" s="9">
         <v>6</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="22"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="14"/>
     </row>
-    <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="26"/>
+    <row r="19" spans="1:6" ht="21" customHeight="1">
+      <c r="A19" s="24"/>
       <c r="B19" s="9">
         <v>7</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="22"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="14"/>
     </row>
-    <row r="20" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="26"/>
+    <row r="20" spans="1:6" ht="21" customHeight="1">
+      <c r="A20" s="24"/>
       <c r="B20" s="9">
         <v>8</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="22"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="14"/>
     </row>
-    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="27" t="s">
+    <row r="21" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A21" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-    </row>
-    <row r="23" spans="1:6" ht="1.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-    </row>
-    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+    </row>
+    <row r="23" spans="1:6" ht="1.75" customHeight="1">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+    </row>
+    <row r="24" spans="1:6" ht="18.75" customHeight="1">
       <c r="A24" s="4"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A4:B4"/>
@@ -1310,14 +1359,6 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1327,28 +1368,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G5" sqref="G5:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.83203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="15" customWidth="1"/>
-    <col min="5" max="6" width="11.875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="3" customWidth="1"/>
+    <col min="5" max="6" width="11.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="19.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1361,33 +1402,33 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:7" ht="39" customHeight="1" thickBot="1">
+      <c r="A2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-    </row>
-    <row r="3" spans="1:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:7" ht="29.25" customHeight="1" thickBot="1">
+      <c r="A3" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
-    </row>
-    <row r="4" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
+    </row>
+    <row r="4" spans="1:7" ht="22" customHeight="1">
       <c r="A4" s="16" t="s">
         <v>9</v>
       </c>
@@ -1410,8 +1451,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="41" t="s">
+    <row r="5" spans="1:7" ht="21" customHeight="1">
+      <c r="A5" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="9">
@@ -1423,14 +1464,14 @@
       <c r="D5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="30" t="s">
+      <c r="E5" s="24"/>
+      <c r="F5" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="29"/>
-    </row>
-    <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="41"/>
+      <c r="G5" s="42"/>
+    </row>
+    <row r="6" spans="1:7" ht="21" customHeight="1">
+      <c r="A6" s="36"/>
       <c r="B6" s="9">
         <v>2</v>
       </c>
@@ -1440,12 +1481,12 @@
       <c r="D6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="29"/>
-    </row>
-    <row r="7" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="41"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="42"/>
+    </row>
+    <row r="7" spans="1:7" ht="21" customHeight="1">
+      <c r="A7" s="36"/>
       <c r="B7" s="9">
         <v>3</v>
       </c>
@@ -1455,12 +1496,12 @@
       <c r="D7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="41"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42"/>
+    </row>
+    <row r="8" spans="1:7" ht="21" customHeight="1">
+      <c r="A8" s="36"/>
       <c r="B8" s="9">
         <v>4</v>
       </c>
@@ -1470,12 +1511,12 @@
       <c r="D8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="41"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
+    </row>
+    <row r="9" spans="1:7" ht="21" customHeight="1">
+      <c r="A9" s="36"/>
       <c r="B9" s="9">
         <v>5</v>
       </c>
@@ -1485,12 +1526,12 @@
       <c r="D9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="41"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="42"/>
+    </row>
+    <row r="10" spans="1:7" ht="21" customHeight="1">
+      <c r="A10" s="36"/>
       <c r="B10" s="9">
         <v>6</v>
       </c>
@@ -1500,12 +1541,12 @@
       <c r="D10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="29"/>
-    </row>
-    <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="41" t="s">
+      <c r="E10" s="24"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="42"/>
+    </row>
+    <row r="11" spans="1:7" ht="21" customHeight="1">
+      <c r="A11" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="9">
@@ -1517,12 +1558,12 @@
       <c r="D11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="29"/>
-    </row>
-    <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="41"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="42"/>
+    </row>
+    <row r="12" spans="1:7" ht="21" customHeight="1">
+      <c r="A12" s="36"/>
       <c r="B12" s="9">
         <v>2</v>
       </c>
@@ -1532,12 +1573,12 @@
       <c r="D12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="29"/>
-    </row>
-    <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="41"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
+    </row>
+    <row r="13" spans="1:7" ht="21" customHeight="1">
+      <c r="A13" s="36"/>
       <c r="B13" s="9">
         <v>3</v>
       </c>
@@ -1547,12 +1588,12 @@
       <c r="D13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="29"/>
-    </row>
-    <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="41"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
+    </row>
+    <row r="14" spans="1:7" ht="21" customHeight="1">
+      <c r="A14" s="36"/>
       <c r="B14" s="9">
         <v>4</v>
       </c>
@@ -1562,12 +1603,12 @@
       <c r="D14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="29"/>
-    </row>
-    <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="41"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="42"/>
+    </row>
+    <row r="15" spans="1:7" ht="21" customHeight="1">
+      <c r="A15" s="36"/>
       <c r="B15" s="9">
         <v>5</v>
       </c>
@@ -1577,12 +1618,12 @@
       <c r="D15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="29"/>
-    </row>
-    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="41"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+    </row>
+    <row r="16" spans="1:7" ht="21" customHeight="1">
+      <c r="A16" s="36"/>
       <c r="B16" s="9">
         <v>6</v>
       </c>
@@ -1592,12 +1633,12 @@
       <c r="D16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="29"/>
-    </row>
-    <row r="17" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="41"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="42"/>
+    </row>
+    <row r="17" spans="1:7" ht="21" customHeight="1">
+      <c r="A17" s="36"/>
       <c r="B17" s="9">
         <v>7</v>
       </c>
@@ -1607,12 +1648,12 @@
       <c r="D17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="29"/>
-    </row>
-    <row r="18" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="41"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
+    </row>
+    <row r="18" spans="1:7" ht="21" customHeight="1">
+      <c r="A18" s="36"/>
       <c r="B18" s="9">
         <v>8</v>
       </c>
@@ -1622,44 +1663,44 @@
       <c r="D18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="29"/>
-    </row>
-    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="34" t="s">
+      <c r="E18" s="24"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="42"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A19" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="37"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
-    </row>
-    <row r="21" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
-    </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="31"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="32"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="1:7" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A21" s="33"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="35"/>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" customHeight="1">
       <c r="A22" s="4"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1683,12 +1724,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1696,12 +1737,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R11 吹膜工序清场记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/A/SOP-MFG-301-R11 吹膜工序清场记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyang/Documents/workspace/mitcpro/mySystem/mySystem/xls/Extrusion/A/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{09A3C57F-F65A-2447-B2FD-47073D70830A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3DD2BCAA-3D47-A046-AA2D-12B11247025A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="39">
   <si>
     <t xml:space="preserve">颇尔奥星包装科技（北京）有限责任公司 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -196,6 +196,9 @@
   <si>
     <t>清场日期：           年   月   日</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：无</t>
   </si>
 </sst>
 </file>
@@ -608,6 +611,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -626,12 +635,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -662,17 +665,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1041,39 +1044,39 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="39" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="24"/>
+      <c r="E3" s="26"/>
       <c r="F3" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1">
@@ -1094,16 +1097,16 @@
       <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="9">
@@ -1112,84 +1115,84 @@
       <c r="C7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="28"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1">
-      <c r="A8" s="24"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="9">
         <v>2</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="28"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1">
-      <c r="A9" s="24"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="9">
         <v>3</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="28"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1">
-      <c r="A10" s="24"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="9">
         <v>4</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="28"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1">
-      <c r="A11" s="24"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="9">
         <v>5</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="28"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1">
-      <c r="A12" s="24"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="9">
         <v>6</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="28"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="9">
@@ -1198,151 +1201,143 @@
       <c r="C13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="28"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1">
-      <c r="A14" s="24"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="9">
         <v>2</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="28"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1">
-      <c r="A15" s="24"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="9">
         <v>3</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="28"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:6" ht="21" customHeight="1">
-      <c r="A16" s="24"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="9">
         <v>4</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="28"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6" ht="21" customHeight="1">
-      <c r="A17" s="24"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="9">
         <v>5</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="28"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6" ht="21" customHeight="1">
-      <c r="A18" s="24"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="9">
         <v>6</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="28"/>
+      <c r="E18" s="22"/>
       <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6" ht="21" customHeight="1">
-      <c r="A19" s="24"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="9">
         <v>7</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="28"/>
+      <c r="E19" s="22"/>
       <c r="F19" s="14"/>
     </row>
     <row r="20" spans="1:6" ht="21" customHeight="1">
-      <c r="A20" s="24"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="9">
         <v>8</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="28"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="1:6" ht="1.75" customHeight="1">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="1:6" ht="18.75" customHeight="1">
       <c r="A24" s="4"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A4:B4"/>
@@ -1359,6 +1354,14 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1375,7 +1378,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G18"/>
+      <selection activeCell="A19" sqref="A19:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1403,15 +1406,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="39" customHeight="1" thickBot="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7" ht="29.25" customHeight="1" thickBot="1">
       <c r="A3" s="37" t="s">
@@ -1422,11 +1425,11 @@
         <v>36</v>
       </c>
       <c r="D3" s="38"/>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="42"/>
     </row>
     <row r="4" spans="1:7" ht="22" customHeight="1">
       <c r="A4" s="16" t="s">
@@ -1464,11 +1467,11 @@
       <c r="D5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="41" t="s">
+      <c r="E5" s="26"/>
+      <c r="F5" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="42"/>
+      <c r="G5" s="39"/>
     </row>
     <row r="6" spans="1:7" ht="21" customHeight="1">
       <c r="A6" s="36"/>
@@ -1481,9 +1484,9 @@
       <c r="D6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="39"/>
     </row>
     <row r="7" spans="1:7" ht="21" customHeight="1">
       <c r="A7" s="36"/>
@@ -1496,9 +1499,9 @@
       <c r="D7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="39"/>
     </row>
     <row r="8" spans="1:7" ht="21" customHeight="1">
       <c r="A8" s="36"/>
@@ -1511,9 +1514,9 @@
       <c r="D8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="42"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7" ht="21" customHeight="1">
       <c r="A9" s="36"/>
@@ -1526,9 +1529,9 @@
       <c r="D9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="42"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="39"/>
     </row>
     <row r="10" spans="1:7" ht="21" customHeight="1">
       <c r="A10" s="36"/>
@@ -1541,9 +1544,9 @@
       <c r="D10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="39"/>
     </row>
     <row r="11" spans="1:7" ht="21" customHeight="1">
       <c r="A11" s="36" t="s">
@@ -1558,9 +1561,9 @@
       <c r="D11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="39"/>
     </row>
     <row r="12" spans="1:7" ht="21" customHeight="1">
       <c r="A12" s="36"/>
@@ -1573,9 +1576,9 @@
       <c r="D12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="39"/>
     </row>
     <row r="13" spans="1:7" ht="21" customHeight="1">
       <c r="A13" s="36"/>
@@ -1588,9 +1591,9 @@
       <c r="D13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="39"/>
     </row>
     <row r="14" spans="1:7" ht="21" customHeight="1">
       <c r="A14" s="36"/>
@@ -1603,9 +1606,9 @@
       <c r="D14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="42"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="39"/>
     </row>
     <row r="15" spans="1:7" ht="21" customHeight="1">
       <c r="A15" s="36"/>
@@ -1618,9 +1621,9 @@
       <c r="D15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="39"/>
     </row>
     <row r="16" spans="1:7" ht="21" customHeight="1">
       <c r="A16" s="36"/>
@@ -1633,9 +1636,9 @@
       <c r="D16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="39"/>
     </row>
     <row r="17" spans="1:7" ht="21" customHeight="1">
       <c r="A17" s="36"/>
@@ -1648,9 +1651,9 @@
       <c r="D17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="39"/>
     </row>
     <row r="18" spans="1:7" ht="21" customHeight="1">
       <c r="A18" s="36"/>
@@ -1663,13 +1666,13 @@
       <c r="D18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="42"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="39"/>
     </row>
     <row r="19" spans="1:7" ht="13.5" customHeight="1">
       <c r="A19" s="29" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
@@ -1698,9 +1701,9 @@
     </row>
     <row r="22" spans="1:7" ht="18.75" customHeight="1">
       <c r="A22" s="4"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="11">
